--- a/biology/Virologie/Particule_virale/Particule_virale.xlsx
+++ b/biology/Virologie/Particule_virale/Particule_virale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les particules virales sont des entités biologiques appartenant au règne des virus. Ce sont des formes virales libres, extracellulaires, capables d'infecter un nouvel hôte et d'y initier leur réplication sans virus assistant[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les particules virales sont des entités biologiques appartenant au règne des virus. Ce sont des formes virales libres, extracellulaires, capables d'infecter un nouvel hôte et d'y initier leur réplication sans virus assistant,.
 Il existe trois sortes de particules virales :
 les virions : virus dotés d'une capside
-les virus acapsidés[3] : séquences nucléotidiques codantes mais nues, tout en restant infectieuses telles quelles[4],[5],[6]
+les virus acapsidés : séquences nucléotidiques codantes mais nues, tout en restant infectieuses telles quelles
 les viroïdes : des agents infectieux autonomes constitué d'un nucléotide nu mais n'encodant aucune protéine, tout en ayant des effets assimilables à ceux des virus.
 Il est courant d'effectuer en laboratoire le titrage en particules virales d'un milieu liquide (ex : virémie).
 </t>
